--- a/Document/界面+表(1).xlsx
+++ b/Document/界面+表(1).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="23595" windowHeight="9795" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="23595" windowHeight="9795" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="客户界面" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="硫分表" sheetId="3" r:id="rId3"/>
     <sheet name="量热表" sheetId="4" r:id="rId4"/>
     <sheet name="全水表" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="189">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,13 +513,184 @@
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>字符</t>
+  </si>
+  <si>
+    <t>编码</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>化验时间</t>
+  </si>
+  <si>
+    <t>HYSJ</t>
+  </si>
+  <si>
+    <t>日期时间</t>
+  </si>
+  <si>
+    <t>化验员</t>
+  </si>
+  <si>
+    <t>HYY</t>
+  </si>
+  <si>
+    <t>化验仪器</t>
+  </si>
+  <si>
+    <t>HYYQ</t>
+  </si>
+  <si>
+    <t>配置的字段值，即哪台仪器</t>
+  </si>
+  <si>
+    <t>内水煤样质量</t>
+  </si>
+  <si>
+    <t>NSMYZL</t>
+  </si>
+  <si>
+    <t>NUMBER(15,6)</t>
+  </si>
+  <si>
+    <t>浮点</t>
+  </si>
+  <si>
+    <t>内水检验结果Mad</t>
+  </si>
+  <si>
+    <t>NSJYJG_MAD</t>
+  </si>
+  <si>
+    <t>灰分煤样质量</t>
+  </si>
+  <si>
+    <t>HFYYZL</t>
+  </si>
+  <si>
+    <t>灰分检验结果Aad</t>
+  </si>
+  <si>
+    <t>HFJYJG_AAD</t>
+  </si>
+  <si>
+    <t>挥发分煤样质量</t>
+  </si>
+  <si>
+    <t>HFFMYZL</t>
+  </si>
+  <si>
+    <t>挥发分检验结果Vad</t>
+  </si>
+  <si>
+    <t>HFFJYJG_VAD</t>
+  </si>
+  <si>
+    <t>干燥无灰基挥发分（Vdaf）</t>
+  </si>
+  <si>
+    <t>GZWHJHFF_VDAF</t>
+  </si>
+  <si>
+    <t>空干基固定碳含量（Fcad）</t>
+  </si>
+  <si>
+    <t>KGJGDTHL_FCAD</t>
+  </si>
+  <si>
+    <t>氢含量（Had）</t>
+  </si>
+  <si>
+    <t>QHL_HAD</t>
+  </si>
+  <si>
+    <t>Had</t>
+  </si>
+  <si>
+    <t>HAD</t>
+  </si>
+  <si>
+    <t>Fcad</t>
+  </si>
+  <si>
+    <t>FCAD</t>
+  </si>
+  <si>
+    <t>Vdaf</t>
+  </si>
+  <si>
+    <t>VDAF</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>DATATYPE</t>
+  </si>
+  <si>
+    <t>默认插入：原始数据</t>
+  </si>
+  <si>
+    <t>是否平均</t>
+  </si>
+  <si>
+    <t>IFAVG</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>默认插入：1，显示为</t>
+  </si>
+  <si>
+    <t>上传时间</t>
+  </si>
+  <si>
+    <t>SCSJ</t>
+  </si>
+  <si>
+    <t>默认取系统时间</t>
+  </si>
+  <si>
+    <t>焦渣号</t>
+  </si>
+  <si>
+    <t>JZH</t>
+  </si>
+  <si>
+    <t>字符备用1</t>
+  </si>
+  <si>
+    <t>ZFBY1</t>
+  </si>
+  <si>
+    <t>时间备用1</t>
+  </si>
+  <si>
+    <t>SJBY1</t>
+  </si>
+  <si>
+    <t>float备用1</t>
+  </si>
+  <si>
+    <t>FLOATBY1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,7 +1166,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1036,7 +1208,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1078,7 +1250,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1120,7 +1292,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1162,7 +1334,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1204,7 +1376,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1246,7 +1418,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1326,7 +1498,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1368,7 +1540,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1410,7 +1582,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1452,7 +1624,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1494,7 +1666,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1536,7 +1708,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1578,7 +1750,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1620,7 +1792,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1667,7 +1839,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1709,7 +1881,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1751,7 +1923,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1793,7 +1965,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1835,7 +2007,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1877,7 +2049,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1919,7 +2091,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1999,7 +2171,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2041,7 +2213,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2083,7 +2255,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2125,7 +2297,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2167,7 +2339,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2214,7 +2386,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2256,7 +2428,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2298,7 +2470,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2340,7 +2512,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2382,7 +2554,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2424,7 +2596,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2466,7 +2638,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2546,7 +2718,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2588,7 +2760,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2630,7 +2802,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2672,7 +2844,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2714,7 +2886,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2756,7 +2928,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2798,7 +2970,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2840,7 +3012,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2882,7 +3054,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2924,7 +3096,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2971,7 +3143,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3013,7 +3185,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3055,7 +3227,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3097,7 +3269,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3139,7 +3311,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3181,7 +3353,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3223,7 +3395,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3303,7 +3475,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3345,7 +3517,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3387,7 +3559,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3429,7 +3601,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3471,7 +3643,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3513,7 +3685,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3555,7 +3727,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3597,7 +3769,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3639,7 +3811,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3681,7 +3853,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3696,7 +3868,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3770,7 +3942,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3805,7 +3976,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3981,16 +4151,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4019,7 +4189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:10">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -4032,7 +4202,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -4045,7 +4215,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -4058,7 +4228,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4069,7 +4239,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4080,7 +4250,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4091,7 +4261,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:10">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4102,7 +4272,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:10">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4113,7 +4283,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:10">
       <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
@@ -4126,27 +4296,27 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3">
       <c r="B21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:3">
       <c r="C28" t="s">
         <v>13</v>
       </c>
@@ -4162,14 +4332,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.25" customWidth="1"/>
@@ -4180,7 +4350,7 @@
     <col min="14" max="15" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:9" ht="14.25" thickBot="1">
       <c r="C2" s="9" t="s">
         <v>40</v>
       </c>
@@ -4191,7 +4361,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:9" ht="14.25" thickBot="1">
       <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
@@ -4212,7 +4382,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="3:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:9" ht="14.25" thickBot="1">
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
@@ -4231,7 +4401,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:9">
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
@@ -4248,7 +4418,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:9">
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
@@ -4265,7 +4435,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:9">
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
@@ -4282,7 +4452,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:9">
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
@@ -4301,7 +4471,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:9">
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
@@ -4318,7 +4488,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:9">
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4335,7 +4505,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:9">
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
@@ -4352,7 +4522,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:9">
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
@@ -4369,7 +4539,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:9">
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
@@ -4386,7 +4556,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:9">
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
@@ -4403,7 +4573,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:9">
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
@@ -4420,7 +4590,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:9">
       <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
@@ -4437,7 +4607,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:9">
       <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
@@ -4454,7 +4624,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:9">
       <c r="C18" s="1" t="s">
         <v>78</v>
       </c>
@@ -4471,7 +4641,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:9">
       <c r="C19" s="1" t="s">
         <v>79</v>
       </c>
@@ -4488,7 +4658,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:9">
       <c r="C20" s="1" t="s">
         <v>101</v>
       </c>
@@ -4505,7 +4675,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:9">
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
@@ -4524,7 +4694,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:9">
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
@@ -4543,7 +4713,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:9">
       <c r="C23" s="1" t="s">
         <v>37</v>
       </c>
@@ -4562,7 +4732,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:9">
       <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
@@ -4579,7 +4749,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:9">
       <c r="C25" s="6" t="s">
         <v>47</v>
       </c>
@@ -4596,7 +4766,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:9">
       <c r="C26" s="6" t="s">
         <v>48</v>
       </c>
@@ -4613,7 +4783,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:9">
       <c r="C27" s="6" t="s">
         <v>49</v>
       </c>
@@ -4630,7 +4800,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:9">
       <c r="C28" s="6" t="s">
         <v>50</v>
       </c>
@@ -4647,7 +4817,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:9">
       <c r="C29" s="6" t="s">
         <v>51</v>
       </c>
@@ -4664,7 +4834,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:9">
       <c r="C30" s="6" t="s">
         <v>52</v>
       </c>
@@ -4681,7 +4851,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:9">
       <c r="C31" s="6" t="s">
         <v>53</v>
       </c>
@@ -4698,7 +4868,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:9">
       <c r="C32" s="6" t="s">
         <v>54</v>
       </c>
@@ -4715,7 +4885,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:9">
       <c r="C33" s="6" t="s">
         <v>55</v>
       </c>
@@ -4732,7 +4902,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:9">
       <c r="C34" s="6" t="s">
         <v>56</v>
       </c>
@@ -4749,7 +4919,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:9">
       <c r="C35" s="6" t="s">
         <v>57</v>
       </c>
@@ -4766,7 +4936,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:9">
       <c r="C36" s="6" t="s">
         <v>58</v>
       </c>
@@ -4783,7 +4953,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:9">
       <c r="C37" s="6" t="s">
         <v>59</v>
       </c>
@@ -4800,7 +4970,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:9">
       <c r="C38" s="6" t="s">
         <v>60</v>
       </c>
@@ -4817,7 +4987,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:9">
       <c r="C39" s="6" t="s">
         <v>61</v>
       </c>
@@ -4834,7 +5004,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:9">
       <c r="C40" s="6" t="s">
         <v>62</v>
       </c>
@@ -4851,7 +5021,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:9">
       <c r="C41" s="6" t="s">
         <v>63</v>
       </c>
@@ -4868,7 +5038,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:9">
       <c r="C42" s="6" t="s">
         <v>64</v>
       </c>
@@ -4885,7 +5055,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:9">
       <c r="C43" s="6" t="s">
         <v>65</v>
       </c>
@@ -4902,7 +5072,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="45" spans="3:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:9" ht="39.75" customHeight="1">
       <c r="C45" s="8" t="s">
         <v>66</v>
       </c>
@@ -4925,20 +5095,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="14.25" thickBot="1">
       <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
@@ -4947,7 +5117,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="14.25" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
@@ -4962,7 +5132,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6">
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -4975,7 +5145,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -4986,7 +5156,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -4997,7 +5167,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -5008,7 +5178,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -5021,7 +5191,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6">
       <c r="B9" s="1" t="s">
         <v>68</v>
       </c>
@@ -5032,7 +5202,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6">
       <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
@@ -5043,7 +5213,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6">
       <c r="B11" s="1" t="s">
         <v>70</v>
       </c>
@@ -5054,7 +5224,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6">
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
@@ -5065,7 +5235,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6">
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
@@ -5078,7 +5248,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6">
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
@@ -5091,7 +5261,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6">
       <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
@@ -5104,7 +5274,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
@@ -5115,7 +5285,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6">
       <c r="B17" s="6" t="s">
         <v>47</v>
       </c>
@@ -5126,7 +5296,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6">
       <c r="B18" s="6" t="s">
         <v>48</v>
       </c>
@@ -5137,7 +5307,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6">
       <c r="B19" s="6" t="s">
         <v>49</v>
       </c>
@@ -5148,7 +5318,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6">
       <c r="B20" s="6" t="s">
         <v>50</v>
       </c>
@@ -5159,7 +5329,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6">
       <c r="B21" s="6" t="s">
         <v>51</v>
       </c>
@@ -5170,7 +5340,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6">
       <c r="B22" s="6" t="s">
         <v>57</v>
       </c>
@@ -5181,7 +5351,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6">
       <c r="B23" s="6" t="s">
         <v>58</v>
       </c>
@@ -5192,7 +5362,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6">
       <c r="B24" s="6" t="s">
         <v>59</v>
       </c>
@@ -5203,7 +5373,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" ht="13.5" customHeight="1">
       <c r="B25" s="6" t="s">
         <v>60</v>
       </c>
@@ -5214,7 +5384,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" ht="13.5" customHeight="1">
       <c r="B26" s="6" t="s">
         <v>61</v>
       </c>
@@ -5225,7 +5395,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" ht="13.5" customHeight="1">
       <c r="B27" s="6" t="s">
         <v>62</v>
       </c>
@@ -5236,7 +5406,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" ht="13.5" customHeight="1">
       <c r="B28" s="6" t="s">
         <v>63</v>
       </c>
@@ -5247,7 +5417,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" ht="60" customHeight="1">
       <c r="B29" s="8" t="s">
         <v>66</v>
       </c>
@@ -5256,28 +5426,28 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -5286,12 +5456,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B33:F33"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5300,14 +5470,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
@@ -5317,7 +5487,7 @@
     <col min="12" max="13" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:7" ht="14.25" thickBot="1">
       <c r="C2" s="9" t="s">
         <v>72</v>
       </c>
@@ -5326,7 +5496,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:7" ht="14.25" thickBot="1">
       <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
@@ -5341,7 +5511,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:7">
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
@@ -5354,7 +5524,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:7">
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
@@ -5365,7 +5535,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:7">
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
@@ -5376,7 +5546,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:7">
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
@@ -5387,7 +5557,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:7">
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
@@ -5400,7 +5570,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:7">
       <c r="C9" s="1" t="s">
         <v>74</v>
       </c>
@@ -5411,7 +5581,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:7">
       <c r="C10" s="1" t="s">
         <v>73</v>
       </c>
@@ -5422,7 +5592,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:7">
       <c r="C11" s="1" t="s">
         <v>75</v>
       </c>
@@ -5433,7 +5603,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:7">
       <c r="C12" s="1" t="s">
         <v>76</v>
       </c>
@@ -5444,7 +5614,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:7">
       <c r="C13" s="1" t="s">
         <v>77</v>
       </c>
@@ -5455,7 +5625,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:7">
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
@@ -5468,7 +5638,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:7">
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
@@ -5481,7 +5651,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:7">
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
@@ -5494,7 +5664,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:7">
       <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
@@ -5505,7 +5675,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:7">
       <c r="C18" s="6" t="s">
         <v>47</v>
       </c>
@@ -5516,7 +5686,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:7">
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
@@ -5527,7 +5697,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:7">
       <c r="C20" s="6" t="s">
         <v>49</v>
       </c>
@@ -5538,7 +5708,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:7">
       <c r="C21" s="6" t="s">
         <v>50</v>
       </c>
@@ -5549,7 +5719,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:7">
       <c r="C22" s="6" t="s">
         <v>51</v>
       </c>
@@ -5560,7 +5730,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:7">
       <c r="C23" s="6" t="s">
         <v>52</v>
       </c>
@@ -5571,7 +5741,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:7">
       <c r="C24" s="6" t="s">
         <v>53</v>
       </c>
@@ -5582,7 +5752,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:7">
       <c r="C25" s="6" t="s">
         <v>54</v>
       </c>
@@ -5593,7 +5763,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:7">
       <c r="C26" s="6" t="s">
         <v>55</v>
       </c>
@@ -5604,7 +5774,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:7">
       <c r="C27" s="6" t="s">
         <v>56</v>
       </c>
@@ -5615,7 +5785,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:7">
       <c r="C28" s="6" t="s">
         <v>57</v>
       </c>
@@ -5626,7 +5796,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:7">
       <c r="C29" s="6" t="s">
         <v>58</v>
       </c>
@@ -5637,7 +5807,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:7">
       <c r="C30" s="6" t="s">
         <v>59</v>
       </c>
@@ -5648,7 +5818,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:7">
       <c r="C31" s="6" t="s">
         <v>60</v>
       </c>
@@ -5659,7 +5829,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:7">
       <c r="C32" s="6" t="s">
         <v>61</v>
       </c>
@@ -5670,7 +5840,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:7">
       <c r="C33" s="6" t="s">
         <v>62</v>
       </c>
@@ -5681,7 +5851,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:7">
       <c r="C34" s="6" t="s">
         <v>63</v>
       </c>
@@ -5692,7 +5862,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:7">
       <c r="C35" s="6" t="s">
         <v>64</v>
       </c>
@@ -5703,7 +5873,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:7">
       <c r="C36" s="6" t="s">
         <v>65</v>
       </c>
@@ -5714,7 +5884,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="38" spans="3:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:7" ht="39.75" customHeight="1">
       <c r="C38" s="8" t="s">
         <v>66</v>
       </c>
@@ -5735,14 +5905,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
@@ -5752,7 +5922,7 @@
     <col min="12" max="13" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:7" ht="14.25" thickBot="1">
       <c r="C2" s="9" t="s">
         <v>80</v>
       </c>
@@ -5761,7 +5931,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:7" ht="14.25" thickBot="1">
       <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
@@ -5776,7 +5946,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:7">
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
@@ -5789,7 +5959,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:7">
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
@@ -5800,7 +5970,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:7">
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
@@ -5811,7 +5981,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:7">
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
@@ -5822,7 +5992,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:7">
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
@@ -5835,7 +6005,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:7">
       <c r="C9" s="1" t="s">
         <v>81</v>
       </c>
@@ -5846,7 +6016,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:7">
       <c r="C10" s="1" t="s">
         <v>73</v>
       </c>
@@ -5857,7 +6027,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:7">
       <c r="C11" s="1" t="s">
         <v>82</v>
       </c>
@@ -5868,7 +6038,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:7">
       <c r="C12" s="1" t="s">
         <v>83</v>
       </c>
@@ -5879,7 +6049,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:7">
       <c r="C13" s="1" t="s">
         <v>84</v>
       </c>
@@ -5890,7 +6060,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:7">
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
@@ -5903,7 +6073,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:7">
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
@@ -5916,7 +6086,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:7">
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
@@ -5929,7 +6099,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:7">
       <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
@@ -5940,7 +6110,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:7">
       <c r="C18" s="6" t="s">
         <v>47</v>
       </c>
@@ -5951,7 +6121,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:7">
       <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
@@ -5962,7 +6132,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:7">
       <c r="C20" s="6" t="s">
         <v>49</v>
       </c>
@@ -5973,7 +6143,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:7">
       <c r="C21" s="6" t="s">
         <v>50</v>
       </c>
@@ -5984,7 +6154,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:7">
       <c r="C22" s="6" t="s">
         <v>51</v>
       </c>
@@ -5995,7 +6165,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:7">
       <c r="C23" s="6" t="s">
         <v>52</v>
       </c>
@@ -6006,7 +6176,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:7">
       <c r="C24" s="6" t="s">
         <v>53</v>
       </c>
@@ -6017,7 +6187,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:7">
       <c r="C25" s="6" t="s">
         <v>54</v>
       </c>
@@ -6028,7 +6198,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:7">
       <c r="C26" s="6" t="s">
         <v>55</v>
       </c>
@@ -6039,7 +6209,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:7">
       <c r="C27" s="6" t="s">
         <v>56</v>
       </c>
@@ -6050,7 +6220,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:7">
       <c r="C28" s="6" t="s">
         <v>57</v>
       </c>
@@ -6061,7 +6231,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:7">
       <c r="C29" s="6" t="s">
         <v>58</v>
       </c>
@@ -6072,7 +6242,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:7">
       <c r="C30" s="6" t="s">
         <v>59</v>
       </c>
@@ -6083,7 +6253,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:7">
       <c r="C31" s="6" t="s">
         <v>60</v>
       </c>
@@ -6094,7 +6264,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:7">
       <c r="C32" s="6" t="s">
         <v>61</v>
       </c>
@@ -6105,7 +6275,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:7">
       <c r="C33" s="6" t="s">
         <v>62</v>
       </c>
@@ -6116,7 +6286,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:7">
       <c r="C34" s="6" t="s">
         <v>63</v>
       </c>
@@ -6127,7 +6297,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:7">
       <c r="C35" s="6" t="s">
         <v>64</v>
       </c>
@@ -6138,7 +6308,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:7">
       <c r="C36" s="6" t="s">
         <v>65</v>
       </c>
@@ -6149,7 +6319,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="38" spans="3:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:7" ht="39.75" customHeight="1">
       <c r="C38" s="8" t="s">
         <v>66</v>
       </c>
@@ -6167,4 +6337,952 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="E5:L124"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="5" spans="5:12">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="5:12">
+      <c r="L7" t="str">
+        <f>"public string " &amp; H5 &amp; "{ get; set; }"</f>
+        <v>public string ID{ get; set; }</v>
+      </c>
+    </row>
+    <row r="8" spans="5:12">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12">
+      <c r="L10" t="str">
+        <f>"public string " &amp; H8 &amp; "{ get; set; }"</f>
+        <v>public string CODE{ get; set; }</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12">
+      <c r="L13" t="str">
+        <f>"public string " &amp; H11 &amp; "{ get; set; }"</f>
+        <v>public string HYSJ{ get; set; }</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12">
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12">
+      <c r="L16" t="str">
+        <f>"public string " &amp; H14 &amp; "{ get; set; }"</f>
+        <v>public string HYY{ get; set; }</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12">
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12">
+      <c r="L19" t="str">
+        <f>"public string " &amp; H17 &amp; "{ get; set; }"</f>
+        <v>public string HYYQ{ get; set; }</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12">
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12">
+      <c r="L22" t="str">
+        <f>"public string " &amp; H20 &amp; "{ get; set; }"</f>
+        <v>public string NSMYZL{ get; set; }</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12">
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12">
+      <c r="L25" t="str">
+        <f>"public string " &amp; H23 &amp; "{ get; set; }"</f>
+        <v>public string NSJYJG_MAD{ get; set; }</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12">
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" t="s">
+        <v>151</v>
+      </c>
+      <c r="I26" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12">
+      <c r="L28" t="str">
+        <f>"public string " &amp; H26 &amp; "{ get; set; }"</f>
+        <v>public string HFYYZL{ get; set; }</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12">
+      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12">
+      <c r="L31" t="str">
+        <f>"public string " &amp; H29 &amp; "{ get; set; }"</f>
+        <v>public string HFJYJG_AAD{ get; set; }</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12">
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H32" t="s">
+        <v>155</v>
+      </c>
+      <c r="I32" t="s">
+        <v>146</v>
+      </c>
+      <c r="J32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12">
+      <c r="L34" t="str">
+        <f>"public string " &amp; H32 &amp; "{ get; set; }"</f>
+        <v>public string HFFMYZL{ get; set; }</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12">
+      <c r="E35">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>156</v>
+      </c>
+      <c r="H35" t="s">
+        <v>157</v>
+      </c>
+      <c r="I35" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12">
+      <c r="L37" t="str">
+        <f>"public string " &amp; H35 &amp; "{ get; set; }"</f>
+        <v>public string HFFJYJG_VAD{ get; set; }</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12">
+      <c r="E38">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>158</v>
+      </c>
+      <c r="H38" t="s">
+        <v>159</v>
+      </c>
+      <c r="I38" t="s">
+        <v>146</v>
+      </c>
+      <c r="J38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12">
+      <c r="L40" t="str">
+        <f>"public string " &amp; H38 &amp; "{ get; set; }"</f>
+        <v>public string GZWHJHFF_VDAF{ get; set; }</v>
+      </c>
+    </row>
+    <row r="41" spans="5:12">
+      <c r="E41">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>160</v>
+      </c>
+      <c r="H41" t="s">
+        <v>161</v>
+      </c>
+      <c r="I41" t="s">
+        <v>146</v>
+      </c>
+      <c r="J41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12">
+      <c r="L43" t="str">
+        <f>"public string " &amp; H41 &amp; "{ get; set; }"</f>
+        <v>public string KGJGDTHL_FCAD{ get; set; }</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12">
+      <c r="E44">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>162</v>
+      </c>
+      <c r="H44" t="s">
+        <v>163</v>
+      </c>
+      <c r="I44" t="s">
+        <v>146</v>
+      </c>
+      <c r="J44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12">
+      <c r="L46" t="str">
+        <f>"public string " &amp; H44 &amp; "{ get; set; }"</f>
+        <v>public string QHL_HAD{ get; set; }</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12">
+      <c r="E47">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>164</v>
+      </c>
+      <c r="H47" t="s">
+        <v>165</v>
+      </c>
+      <c r="I47" t="s">
+        <v>146</v>
+      </c>
+      <c r="J47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12">
+      <c r="L49" t="str">
+        <f>"public string " &amp; H47 &amp; "{ get; set; }"</f>
+        <v>public string HAD{ get; set; }</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12">
+      <c r="E50">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>166</v>
+      </c>
+      <c r="H50" t="s">
+        <v>167</v>
+      </c>
+      <c r="I50" t="s">
+        <v>146</v>
+      </c>
+      <c r="J50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12">
+      <c r="L52" t="str">
+        <f>"public string " &amp; H50 &amp; "{ get; set; }"</f>
+        <v>public string FCAD{ get; set; }</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12">
+      <c r="E53">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>168</v>
+      </c>
+      <c r="H53" t="s">
+        <v>169</v>
+      </c>
+      <c r="I53" t="s">
+        <v>146</v>
+      </c>
+      <c r="J53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12">
+      <c r="L55" t="str">
+        <f>"public string " &amp; H53 &amp; "{ get; set; }"</f>
+        <v>public string VDAF{ get; set; }</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12">
+      <c r="E56">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
+        <v>170</v>
+      </c>
+      <c r="H56" t="s">
+        <v>171</v>
+      </c>
+      <c r="I56" t="s">
+        <v>126</v>
+      </c>
+      <c r="J56" t="s">
+        <v>133</v>
+      </c>
+      <c r="K56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12">
+      <c r="L58" t="str">
+        <f>"public string " &amp; H56 &amp; "{ get; set; }"</f>
+        <v>public string DATATYPE{ get; set; }</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12">
+      <c r="E59">
+        <v>19</v>
+      </c>
+      <c r="G59" t="s">
+        <v>173</v>
+      </c>
+      <c r="H59" t="s">
+        <v>174</v>
+      </c>
+      <c r="I59" t="s">
+        <v>175</v>
+      </c>
+      <c r="J59" t="s">
+        <v>176</v>
+      </c>
+      <c r="K59" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12">
+      <c r="L61" t="str">
+        <f>"public string " &amp; H59 &amp; "{ get; set; }"</f>
+        <v>public string IFAVG{ get; set; }</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12">
+      <c r="E62">
+        <v>20</v>
+      </c>
+      <c r="G62" t="s">
+        <v>178</v>
+      </c>
+      <c r="H62" t="s">
+        <v>179</v>
+      </c>
+      <c r="I62" t="s">
+        <v>128</v>
+      </c>
+      <c r="J62" t="s">
+        <v>138</v>
+      </c>
+      <c r="K62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12">
+      <c r="L64" t="str">
+        <f>"public string " &amp; H62 &amp; "{ get; set; }"</f>
+        <v>public string SCSJ{ get; set; }</v>
+      </c>
+    </row>
+    <row r="65" spans="5:12">
+      <c r="E65">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>181</v>
+      </c>
+      <c r="H65" t="s">
+        <v>182</v>
+      </c>
+      <c r="I65" t="s">
+        <v>126</v>
+      </c>
+      <c r="J65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="5:12">
+      <c r="L67" t="str">
+        <f>"public string " &amp; H65 &amp; "{ get; set; }"</f>
+        <v>public string JZH{ get; set; }</v>
+      </c>
+    </row>
+    <row r="68" spans="5:12">
+      <c r="E68">
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>183</v>
+      </c>
+      <c r="H68" t="s">
+        <v>184</v>
+      </c>
+      <c r="I68" t="s">
+        <v>126</v>
+      </c>
+      <c r="J68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="5:12">
+      <c r="L70" t="str">
+        <f>"public string " &amp; H68 &amp; "{ get; set; }"</f>
+        <v>public string ZFBY1{ get; set; }</v>
+      </c>
+    </row>
+    <row r="71" spans="5:12">
+      <c r="E71">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>48</v>
+      </c>
+      <c r="H71" t="s">
+        <v>108</v>
+      </c>
+      <c r="I71" t="s">
+        <v>126</v>
+      </c>
+      <c r="J71" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="5:12">
+      <c r="L73" t="str">
+        <f>"public string " &amp; H71 &amp; "{ get; set; }"</f>
+        <v>public string ZFBY2{ get; set; }</v>
+      </c>
+    </row>
+    <row r="74" spans="5:12">
+      <c r="E74">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s">
+        <v>49</v>
+      </c>
+      <c r="H74" t="s">
+        <v>109</v>
+      </c>
+      <c r="I74" t="s">
+        <v>126</v>
+      </c>
+      <c r="J74" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="5:12">
+      <c r="L76" t="str">
+        <f>"public string " &amp; H74 &amp; "{ get; set; }"</f>
+        <v>public string ZFBY3{ get; set; }</v>
+      </c>
+    </row>
+    <row r="77" spans="5:12">
+      <c r="E77">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s">
+        <v>50</v>
+      </c>
+      <c r="H77" t="s">
+        <v>110</v>
+      </c>
+      <c r="I77" t="s">
+        <v>126</v>
+      </c>
+      <c r="J77" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="5:12">
+      <c r="L79" t="str">
+        <f>"public string " &amp; H77 &amp; "{ get; set; }"</f>
+        <v>public string ZFBY4{ get; set; }</v>
+      </c>
+    </row>
+    <row r="80" spans="5:12">
+      <c r="E80">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>51</v>
+      </c>
+      <c r="H80" t="s">
+        <v>111</v>
+      </c>
+      <c r="I80" t="s">
+        <v>126</v>
+      </c>
+      <c r="J80" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="5:12">
+      <c r="L82" t="str">
+        <f>"public string " &amp; H80 &amp; "{ get; set; }"</f>
+        <v>public string ZFBY5{ get; set; }</v>
+      </c>
+    </row>
+    <row r="83" spans="5:12">
+      <c r="E83">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s">
+        <v>52</v>
+      </c>
+      <c r="H83" t="s">
+        <v>112</v>
+      </c>
+      <c r="I83" t="s">
+        <v>126</v>
+      </c>
+      <c r="J83" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="5:12">
+      <c r="L85" t="str">
+        <f>"public string " &amp; H83 &amp; "{ get; set; }"</f>
+        <v>public string ZFBY6{ get; set; }</v>
+      </c>
+    </row>
+    <row r="86" spans="5:12">
+      <c r="E86">
+        <v>28</v>
+      </c>
+      <c r="G86" t="s">
+        <v>53</v>
+      </c>
+      <c r="H86" t="s">
+        <v>113</v>
+      </c>
+      <c r="I86" t="s">
+        <v>126</v>
+      </c>
+      <c r="J86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="5:12">
+      <c r="L88" t="str">
+        <f>"public string " &amp; H86 &amp; "{ get; set; }"</f>
+        <v>public string ZFBY7{ get; set; }</v>
+      </c>
+    </row>
+    <row r="89" spans="5:12">
+      <c r="E89">
+        <v>29</v>
+      </c>
+      <c r="G89" t="s">
+        <v>54</v>
+      </c>
+      <c r="H89" t="s">
+        <v>114</v>
+      </c>
+      <c r="I89" t="s">
+        <v>126</v>
+      </c>
+      <c r="J89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="5:12">
+      <c r="L91" t="str">
+        <f>"public string " &amp; H89 &amp; "{ get; set; }"</f>
+        <v>public string ZFBY8{ get; set; }</v>
+      </c>
+    </row>
+    <row r="92" spans="5:12">
+      <c r="E92">
+        <v>30</v>
+      </c>
+      <c r="G92" t="s">
+        <v>55</v>
+      </c>
+      <c r="H92" t="s">
+        <v>115</v>
+      </c>
+      <c r="I92" t="s">
+        <v>126</v>
+      </c>
+      <c r="J92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="5:12">
+      <c r="L94" t="str">
+        <f>"public string " &amp; H92 &amp; "{ get; set; }"</f>
+        <v>public string ZFBY9{ get; set; }</v>
+      </c>
+    </row>
+    <row r="95" spans="5:12">
+      <c r="E95">
+        <v>31</v>
+      </c>
+      <c r="G95" t="s">
+        <v>56</v>
+      </c>
+      <c r="H95" t="s">
+        <v>116</v>
+      </c>
+      <c r="I95" t="s">
+        <v>126</v>
+      </c>
+      <c r="J95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="5:12">
+      <c r="L97" t="str">
+        <f>"public string " &amp; H95 &amp; "{ get; set; }"</f>
+        <v>public string ZFBY10{ get; set; }</v>
+      </c>
+    </row>
+    <row r="98" spans="5:12">
+      <c r="E98">
+        <v>32</v>
+      </c>
+      <c r="G98" t="s">
+        <v>185</v>
+      </c>
+      <c r="H98" t="s">
+        <v>186</v>
+      </c>
+      <c r="I98" t="s">
+        <v>128</v>
+      </c>
+      <c r="J98" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="5:12">
+      <c r="L100" t="str">
+        <f>"public string " &amp; H98 &amp; "{ get; set; }"</f>
+        <v>public string SJBY1{ get; set; }</v>
+      </c>
+    </row>
+    <row r="101" spans="5:12">
+      <c r="E101">
+        <v>33</v>
+      </c>
+      <c r="G101" t="s">
+        <v>58</v>
+      </c>
+      <c r="H101" t="s">
+        <v>118</v>
+      </c>
+      <c r="I101" t="s">
+        <v>128</v>
+      </c>
+      <c r="J101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="5:12">
+      <c r="L103" t="str">
+        <f>"public string " &amp; H101 &amp; "{ get; set; }"</f>
+        <v>public string SJBY2{ get; set; }</v>
+      </c>
+    </row>
+    <row r="104" spans="5:12">
+      <c r="E104">
+        <v>34</v>
+      </c>
+      <c r="G104" t="s">
+        <v>59</v>
+      </c>
+      <c r="H104" t="s">
+        <v>119</v>
+      </c>
+      <c r="I104" t="s">
+        <v>128</v>
+      </c>
+      <c r="J104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="5:12">
+      <c r="L106" t="str">
+        <f>"public string " &amp; H104 &amp; "{ get; set; }"</f>
+        <v>public string SJBY3{ get; set; }</v>
+      </c>
+    </row>
+    <row r="107" spans="5:12">
+      <c r="E107">
+        <v>35</v>
+      </c>
+      <c r="G107" t="s">
+        <v>187</v>
+      </c>
+      <c r="H107" t="s">
+        <v>188</v>
+      </c>
+      <c r="I107" t="s">
+        <v>146</v>
+      </c>
+      <c r="J107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="5:12">
+      <c r="L109" t="str">
+        <f>"public string " &amp; H107 &amp; "{ get; set; }"</f>
+        <v>public string FLOATBY1{ get; set; }</v>
+      </c>
+    </row>
+    <row r="110" spans="5:12">
+      <c r="E110">
+        <v>36</v>
+      </c>
+      <c r="G110" t="s">
+        <v>61</v>
+      </c>
+      <c r="H110" t="s">
+        <v>121</v>
+      </c>
+      <c r="I110" t="s">
+        <v>146</v>
+      </c>
+      <c r="J110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="5:12">
+      <c r="L112" t="str">
+        <f>"public string " &amp; H110 &amp; "{ get; set; }"</f>
+        <v>public string FLOATBY2{ get; set; }</v>
+      </c>
+    </row>
+    <row r="113" spans="5:12">
+      <c r="E113">
+        <v>37</v>
+      </c>
+      <c r="G113" t="s">
+        <v>62</v>
+      </c>
+      <c r="H113" t="s">
+        <v>122</v>
+      </c>
+      <c r="I113" t="s">
+        <v>146</v>
+      </c>
+      <c r="J113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="5:12">
+      <c r="L115" t="str">
+        <f>"public string " &amp; H113 &amp; "{ get; set; }"</f>
+        <v>public string FLOATBY3{ get; set; }</v>
+      </c>
+    </row>
+    <row r="116" spans="5:12">
+      <c r="E116">
+        <v>38</v>
+      </c>
+      <c r="G116" t="s">
+        <v>63</v>
+      </c>
+      <c r="H116" t="s">
+        <v>123</v>
+      </c>
+      <c r="I116" t="s">
+        <v>146</v>
+      </c>
+      <c r="J116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="5:12">
+      <c r="L118" t="str">
+        <f>"public string " &amp; H116 &amp; "{ get; set; }"</f>
+        <v>public string FLOATBY4{ get; set; }</v>
+      </c>
+    </row>
+    <row r="119" spans="5:12">
+      <c r="E119">
+        <v>39</v>
+      </c>
+      <c r="G119" t="s">
+        <v>64</v>
+      </c>
+      <c r="H119" t="s">
+        <v>124</v>
+      </c>
+      <c r="I119" t="s">
+        <v>146</v>
+      </c>
+      <c r="J119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="5:12">
+      <c r="L121" t="str">
+        <f>"public string " &amp; H119 &amp; "{ get; set; }"</f>
+        <v>public string FLOATBY5{ get; set; }</v>
+      </c>
+    </row>
+    <row r="122" spans="5:12">
+      <c r="E122">
+        <v>40</v>
+      </c>
+      <c r="G122" t="s">
+        <v>65</v>
+      </c>
+      <c r="H122" t="s">
+        <v>125</v>
+      </c>
+      <c r="I122" t="s">
+        <v>146</v>
+      </c>
+      <c r="J122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="5:12">
+      <c r="L124" t="str">
+        <f>"public string " &amp; H122 &amp; "{ get; set; }"</f>
+        <v>public string FLOATBY6{ get; set; }</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>